--- a/Anomalies et Débogage.xlsx
+++ b/Anomalies et Débogage.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>Type d'anomalie</t>
   </si>
@@ -70,10 +70,10 @@
     <t>Bloquer l'action de dépôt du joueur avec une délimitation intérieure de l'écran, afin d'éviter que les billes posées en bordure se retrouvent coincées. Utilisation d'une instruction conditionnelle et d'une variable limitAreaDepBall pour empêcher la bille d'être irrécupérable à 1 pixel près du bord. Le problème provient des coordonnées ox et oy du joueur.</t>
   </si>
   <si>
-    <t>Décalage des suppressions d'acteurs dans la liste des ennemis suite à une collision entre les balles et les ennemis.</t>
-  </si>
-  <si>
-    <t>Parcours de la liste à l'aide de boucles, lignes 314 à 379 du module M_state.lua. Problème identifié au niveau de table.remove(ListNam) à la ligne 335. J'ai ajouté comme deuxième argument attendu le l de l'itérateur. Solution : table.remove(ListNam, l).</t>
+    <t>Décalage des suppressions d'acteurs dans la liste des ennemis suite à une collision entre les balles du joueur et les vaisseaux ennemis.</t>
+  </si>
+  <si>
+    <t>Parcours de la liste à l'aide de boucles, lignes 314 à 379 du module M_state.lua. Problème identifié au niveau de table.remove(le) à la ligne 335. J'ai ajouté comme premier argument la liste des ennemis et en deuxième argument l'indice l de l'itérateur. Solution : table.remove(ListNam, l).Utilisation du fichier log.txt</t>
   </si>
   <si>
     <t>Erreur Syntaxique</t>
@@ -92,6 +92,24 @@
   </si>
   <si>
     <t>Mauvaise imbriquation des blocs de code avec les conditions If...then...End. Le décalage du code empêchait la lecture séquentielle, je l'ai donc repositionné correctement.</t>
+  </si>
+  <si>
+    <t>Erreur logique, position non conforme de la jauge de vie en limite d'écran</t>
+  </si>
+  <si>
+    <t>Conditions spécifiques pour décaler la barre de vie quand le joueur arrive à une certaine limite de l' écran avec les coordonées x,y. Utilisation de deux variables distances pour replacer la jauge sur x et y .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erreur de calcul d'angle. Le tir des ennemis est mal orienté. </t>
+  </si>
+  <si>
+    <t>Le problème venait de l'utilisation de la fonction math.rad() l209-211. La conversion de la valeur e.angleShoot en radian se faisait deux fois.</t>
+  </si>
+  <si>
+    <t>Erreur de tir de balles avec un élément défini comme null à cause d'un décalage dans la liste</t>
+  </si>
+  <si>
+    <t>modification de la boucle utilisée pour faire un table.remove().Parcours de la liste en partant de la fin.Correction de l'écriture de la boucle : for #bulletsPlayer,1,-1 do ... end</t>
   </si>
 </sst>
 </file>
@@ -326,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -396,6 +414,30 @@
     <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="8" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -412,27 +454,6 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1015,13 +1036,27 @@
       <c r="W7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
+      <c r="A8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9">
+        <v>45669.0</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1040,13 +1075,27 @@
       <c r="W8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
+      <c r="A9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="16">
+        <v>45669.0</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1065,13 +1114,27 @@
       <c r="W9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
+      <c r="A10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9">
+        <v>45669.0</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -1090,13 +1153,13 @@
       <c r="W10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -1115,13 +1178,13 @@
       <c r="W11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1140,13 +1203,13 @@
       <c r="W12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1165,13 +1228,13 @@
       <c r="W13" s="6"/>
     </row>
     <row r="14">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1190,49 +1253,49 @@
       <c r="W14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
     </row>
   </sheetData>
   <dataValidations>
